--- a/product_import/demo/product.xlsx
+++ b/product_import/demo/product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Product name</t>
   </si>
@@ -37,25 +37,13 @@
     <t xml:space="preserve">Image</t>
   </si>
   <si>
-    <t xml:space="preserve">water</t>
+    <t xml:space="preserve">drive22</t>
   </si>
   <si>
     <t xml:space="preserve">consu</t>
   </si>
   <si>
-    <t xml:space="preserve">Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://news.maxabout.com/wp-content/uploads/2019/04/Dodge-Most-Loved-Brand.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product</t>
+    <t xml:space="preserve">https://dochub.com/enasyasser38/QonjxvZRGbpBO18w6dl87g/43510301011-jpg</t>
   </si>
 </sst>
 </file>
@@ -137,12 +125,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,20 +151,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -200,7 +184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -208,50 +192,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>7984334521</v>
+        <v>7.94777774422843E+019</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>123245654</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>3500</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>5545647545</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2700</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://news.maxabout.com/wp-content/uploads/2019/04/Dodge-Most-Loved-Brand.jpg"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://dochub.com/enasyasser38/QonjxvZRGbpBO18w6dl87g/43510301011-jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
